--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H2">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I2">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J2">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>5.943433603225555</v>
+        <v>4.472204835686778</v>
       </c>
       <c r="R2">
-        <v>53.49090242902999</v>
+        <v>40.249843521181</v>
       </c>
       <c r="S2">
-        <v>0.0003258209267796397</v>
+        <v>0.0002113271069076412</v>
       </c>
       <c r="T2">
-        <v>0.0003258209267796397</v>
+        <v>0.0002113271069076411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H3">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I3">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J3">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>297.7650102873184</v>
+        <v>303.1121022089774</v>
       </c>
       <c r="R3">
-        <v>2679.885092585866</v>
+        <v>2728.008919880797</v>
       </c>
       <c r="S3">
-        <v>0.01632357288583328</v>
+        <v>0.01432309251968322</v>
       </c>
       <c r="T3">
-        <v>0.01632357288583328</v>
+        <v>0.01432309251968322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H4">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I4">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J4">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>55.68085583677222</v>
+        <v>96.95050138542534</v>
       </c>
       <c r="R4">
-        <v>501.1277025309499</v>
+        <v>872.554512468828</v>
       </c>
       <c r="S4">
-        <v>0.00305244228568059</v>
+        <v>0.004581245654836133</v>
       </c>
       <c r="T4">
-        <v>0.003052442285680589</v>
+        <v>0.004581245654836132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H5">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I5">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J5">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>0.5196049136373334</v>
+        <v>0.9002013125163334</v>
       </c>
       <c r="R5">
-        <v>4.676444222736</v>
+        <v>8.101811812647</v>
       </c>
       <c r="S5">
-        <v>2.848490718036978E-05</v>
+        <v>4.253761757299387E-05</v>
       </c>
       <c r="T5">
-        <v>2.848490718036978E-05</v>
+        <v>4.253761757299387E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I6">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J6">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>269.3099857518372</v>
+        <v>199.0705953472801</v>
       </c>
       <c r="R6">
-        <v>2423.789871766536</v>
+        <v>1791.635358125521</v>
       </c>
       <c r="S6">
-        <v>0.01476365936031559</v>
+        <v>0.009406772393210848</v>
       </c>
       <c r="T6">
-        <v>0.01476365936031559</v>
+        <v>0.009406772393210847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I7">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J7">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
         <v>13492.38437430393</v>
@@ -883,10 +883,10 @@
         <v>121431.4593687354</v>
       </c>
       <c r="S7">
-        <v>0.7396568170488238</v>
+        <v>0.6375617083446159</v>
       </c>
       <c r="T7">
-        <v>0.7396568170488239</v>
+        <v>0.6375617083446158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I8">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J8">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>2523.021454115864</v>
+        <v>4315.543392826306</v>
       </c>
       <c r="R8">
-        <v>22707.19308704278</v>
+        <v>38839.89053543675</v>
       </c>
       <c r="S8">
-        <v>0.1383128412537173</v>
+        <v>0.20392431327451</v>
       </c>
       <c r="T8">
-        <v>0.1383128412537173</v>
+        <v>0.20392431327451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I9">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J9">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>23.54443596582134</v>
+        <v>40.07052847513634</v>
       </c>
       <c r="R9">
-        <v>211.8999236923921</v>
+        <v>360.6347562762271</v>
       </c>
       <c r="S9">
-        <v>0.001290713493076548</v>
+        <v>0.001893470707633726</v>
       </c>
       <c r="T9">
-        <v>0.001290713493076548</v>
+        <v>0.001893470707633726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H10">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I10">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J10">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N10">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q10">
-        <v>24.48663114337834</v>
+        <v>29.20677937729366</v>
       </c>
       <c r="R10">
-        <v>220.379680290405</v>
+        <v>262.861014395643</v>
       </c>
       <c r="S10">
-        <v>0.001342364933380739</v>
+        <v>0.001380121084490843</v>
       </c>
       <c r="T10">
-        <v>0.001342364933380739</v>
+        <v>0.001380121084490843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H11">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I11">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J11">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P11">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q11">
-        <v>1226.776045811766</v>
+        <v>1979.544457615566</v>
       </c>
       <c r="R11">
-        <v>11040.98441230589</v>
+        <v>17815.90011854009</v>
       </c>
       <c r="S11">
-        <v>0.06725225431651585</v>
+        <v>0.09354030474740357</v>
       </c>
       <c r="T11">
-        <v>0.06725225431651587</v>
+        <v>0.09354030474740356</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H12">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I12">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J12">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N12">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q12">
-        <v>229.4021721522584</v>
+        <v>633.157918413476</v>
       </c>
       <c r="R12">
-        <v>2064.619549370325</v>
+        <v>5698.421265721284</v>
       </c>
       <c r="S12">
-        <v>0.01257590028352416</v>
+        <v>0.02991889594284125</v>
       </c>
       <c r="T12">
-        <v>0.01257590028352416</v>
+        <v>0.02991889594284125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H13">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I13">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J13">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N13">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O13">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P13">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q13">
-        <v>2.140744678904001</v>
+        <v>5.878975157848999</v>
       </c>
       <c r="R13">
-        <v>19.26670211013601</v>
+        <v>52.91077642064099</v>
       </c>
       <c r="S13">
-        <v>0.0001173563064455779</v>
+        <v>0.0002778018577718688</v>
       </c>
       <c r="T13">
-        <v>0.0001173563064455779</v>
+        <v>0.0002778018577718687</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H14">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I14">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J14">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N14">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q14">
-        <v>1.493446998971111</v>
+        <v>0.685928940394</v>
       </c>
       <c r="R14">
-        <v>13.44102299074</v>
+        <v>6.173360463546</v>
       </c>
       <c r="S14">
-        <v>8.187124106795084E-05</v>
+        <v>3.241250878336114E-05</v>
       </c>
       <c r="T14">
-        <v>8.187124106795086E-05</v>
+        <v>3.241250878336114E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H15">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I15">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J15">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P15">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q15">
-        <v>74.8214400461809</v>
+        <v>46.490125279978</v>
       </c>
       <c r="R15">
-        <v>673.3929604156281</v>
+        <v>418.411127519802</v>
       </c>
       <c r="S15">
-        <v>0.00410173522012655</v>
+        <v>0.002196818803287845</v>
       </c>
       <c r="T15">
-        <v>0.00410173522012655</v>
+        <v>0.002196818803287845</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H16">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I16">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J16">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N16">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q16">
-        <v>13.99130748334445</v>
+        <v>14.869881217272</v>
       </c>
       <c r="R16">
-        <v>125.9217673501</v>
+        <v>133.828930955448</v>
       </c>
       <c r="S16">
-        <v>0.0007670079411012801</v>
+        <v>0.0007026531863279018</v>
       </c>
       <c r="T16">
-        <v>0.0007670079411012801</v>
+        <v>0.0007026531863279017</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H17">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I17">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J17">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N17">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O17">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P17">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q17">
-        <v>0.1305646618986667</v>
+        <v>0.138069286878</v>
       </c>
       <c r="R17">
-        <v>1.175081957088</v>
+        <v>1.242623581902</v>
       </c>
       <c r="S17">
-        <v>7.157596430690615E-06</v>
+        <v>6.524250122869913E-06</v>
       </c>
       <c r="T17">
-        <v>7.157596430690616E-06</v>
+        <v>6.524250122869912E-06</v>
       </c>
     </row>
   </sheetData>
